--- a/Output/final_questions.xlsx
+++ b/Output/final_questions.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PREP FL 1.1</t>
+          <t>PREP FL Final 1.1.</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PREP FL 1.2</t>
+          <t>PREP FL Final 1.2.</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PREP FL 1.3</t>
+          <t>PREP FL Final 1.3.</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PREP FL 1.4</t>
+          <t>PREP FL Final 1.4.</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PREP FL 1.5</t>
+          <t>PREP FL Final 1.5.</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PREP FL 1.6</t>
+          <t>PREP FL Final 1.6.</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PREP FL 1.7</t>
+          <t>PREP FL Final 1.7.</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PREP FL 1.8</t>
+          <t>PREP FL Final 1.8.</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PREP FL 1.9</t>
+          <t>PREP FL Final 1.9.</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PREP FL 1.10</t>
+          <t>PREP FL Final 1.10.</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PREP FL 1.11</t>
+          <t>PREP FL Final 1.11.</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PREP FL 1.12</t>
+          <t>PREP FL Final 1.12.</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PREP FL 1.13</t>
+          <t>PREP FL Final 1.13.</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PREP FL 1.14</t>
+          <t>PREP FL Final 1.14.</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PREP FL 1.15</t>
+          <t>PREP FL Final 1.15.</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PREP FL 1.16</t>
+          <t>PREP FL Final 1.16.</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PREP FL 1.17</t>
+          <t>PREP FL Final 1.17.</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PREP FL 1.18</t>
+          <t>PREP FL Final 1.18.</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PREP FL 1.19</t>
+          <t>PREP FL Final 1.19.</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PREP FL 1.20</t>
+          <t>PREP FL Final 1.2.</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PREP FL 1.21</t>
+          <t>PREP FL Final 1.21.</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PREP FL 1.22</t>
+          <t>PREP FL Final 1.22.</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PREP FL 1.23</t>
+          <t>PREP FL Final 1.23.</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PREP FL 1.24</t>
+          <t>PREP FL Final 1.24.</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>PREP FL 1.25</t>
+          <t>PREP FL Final 1.25.</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>PREP FL 1.26</t>
+          <t>PREP FL Final 1.26.</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>PREP FL 1.27</t>
+          <t>PREP FL Final 1.27.</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>PREP FL 1.28</t>
+          <t>PREP FL Final 1.28.</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>PREP FL 1.29</t>
+          <t>PREP FL Final 1.29.</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>PREP FL 1.30</t>
+          <t>PREP FL Final 1.3.</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>PREP FL 1.31</t>
+          <t>PREP FL Final 1.31.</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>PREP FL 1.32</t>
+          <t>PREP FL Final 1.32.</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>PREP FL 1.33</t>
+          <t>PREP FL Final 1.33.</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>PREP FL 1.34</t>
+          <t>PREP FL Final 1.34.</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>PREP FL 1.35</t>
+          <t>PREP FL Final 1.35.</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>PREP FL 1.36</t>
+          <t>PREP FL Final 1.36.</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>PREP FL 1.37</t>
+          <t>PREP FL Final 1.37.</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>PREP FL 1.38</t>
+          <t>PREP FL Final 1.38.</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>PREP FL 1.39</t>
+          <t>PREP FL Final 1.39.</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>PREP FL 1.40</t>
+          <t>PREP FL Final 1.4.</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>PREP FL 1.41</t>
+          <t>PREP FL Final 1.41.</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>PREP FL 1.42</t>
+          <t>PREP FL Final 1.42.</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>PREP FL 1.43</t>
+          <t>PREP FL Final 1.43.</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>PREP FL 1.44</t>
+          <t>PREP FL Final 1.44.</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>PREP FL 1.45</t>
+          <t>PREP FL Final 1.45.</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>PREP FL 1.46</t>
+          <t>PREP FL Final 1.46.</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>PREP FL 1.47</t>
+          <t>PREP FL Final 1.47.</t>
         </is>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>PREP FL 1.48</t>
+          <t>PREP FL Final 1.48.</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>PREP FL 1.49</t>
+          <t>PREP FL Final 1.49.</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>PREP FL 1.50</t>
+          <t>PREP FL Final 1.5.</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>PREP FL 1.51</t>
+          <t>PREP FL Final 1.51.</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>PREP FL 1.52</t>
+          <t>PREP FL Final 1.52.</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>PREP FL 1.53</t>
+          <t>PREP FL Final 1.53.</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>PREP FL 1.54</t>
+          <t>PREP FL Final 1.54.</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>PREP FL 1.55</t>
+          <t>PREP FL Final 1.55.</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>PREP FL 1.56</t>
+          <t>PREP FL Final 1.56.</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>PREP FL 1.57</t>
+          <t>PREP FL Final 1.57.</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>PREP FL 1.58</t>
+          <t>PREP FL Final 1.58.</t>
         </is>
       </c>
     </row>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>PREP FL 1.59</t>
+          <t>PREP FL Final 1.59.</t>
         </is>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>PREP FL 1.60</t>
+          <t>PREP FL Final 1.6.</t>
         </is>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>PREP FL 1.61</t>
+          <t>PREP FL Final 1.61.</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>PREP FL 1.62</t>
+          <t>PREP FL Final 1.62.</t>
         </is>
       </c>
     </row>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>PREP FL 1.63</t>
+          <t>PREP FL Final 1.63.</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>PREP FL 1.64</t>
+          <t>PREP FL Final 1.64.</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>PREP FL 1.65</t>
+          <t>PREP FL Final 1.65.</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>PREP FL 1.66</t>
+          <t>PREP FL Final 1.66.</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>PREP FL 1.67</t>
+          <t>PREP FL Final 1.67.</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>PREP FL 1.68</t>
+          <t>PREP FL Final 1.68.</t>
         </is>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>PREP FL 1.69</t>
+          <t>PREP FL Final 1.69.</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>PREP FL 1.70</t>
+          <t>PREP FL Final 1.7.</t>
         </is>
       </c>
     </row>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>PREP FL 1.71</t>
+          <t>PREP FL Final 1.71.</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>PREP FL 1.72</t>
+          <t>PREP FL Final 1.72.</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>PREP FL 1.73</t>
+          <t>PREP FL Final 1.73.</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>PREP FL 1.74</t>
+          <t>PREP FL Final 1.74.</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>PREP FL 1.75</t>
+          <t>PREP FL Final 1.75.</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>PREP FL 1.76</t>
+          <t>PREP FL Final 1.76.</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>PREP FL 1.77</t>
+          <t>PREP FL Final 1.77.</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>PREP FL 1.78</t>
+          <t>PREP FL Final 1.78.</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>PREP FL 1.79</t>
+          <t>PREP FL Final 1.79.</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>PREP FL 1.80</t>
+          <t>PREP FL Final 1.8.</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>PREP FL 1.81</t>
+          <t>PREP FL Final 1.81.</t>
         </is>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>PREP FL 1.82</t>
+          <t>PREP FL Final 1.82.</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>PREP FL 1.83</t>
+          <t>PREP FL Final 1.83.</t>
         </is>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>PREP FL 1.84</t>
+          <t>PREP FL Final 1.84.</t>
         </is>
       </c>
     </row>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>PREP FL 1.85</t>
+          <t>PREP FL Final 1.85.</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>PREP FL 1.86</t>
+          <t>PREP FL Final 1.86.</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>PREP FL 1.87</t>
+          <t>PREP FL Final 1.87.</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>PREP FL 1.88</t>
+          <t>PREP FL Final 1.88.</t>
         </is>
       </c>
     </row>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>PREP FL 1.89</t>
+          <t>PREP FL Final 1.89.</t>
         </is>
       </c>
     </row>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>PREP FL 1.90</t>
+          <t>PREP FL Final 1.9.</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>PREP FL 1.91</t>
+          <t>PREP FL Final 1.91.</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>PREP FL 1.92</t>
+          <t>PREP FL Final 1.92.</t>
         </is>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>PREP FL 1.93</t>
+          <t>PREP FL Final 1.93.</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>PREP FL 1.94</t>
+          <t>PREP FL Final 1.94.</t>
         </is>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>PREP FL 1.95</t>
+          <t>PREP FL Final 1.95.</t>
         </is>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>PREP FL 1.96</t>
+          <t>PREP FL Final 1.96.</t>
         </is>
       </c>
     </row>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>PREP FL 1.97</t>
+          <t>PREP FL Final 1.97.</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>PREP FL 1.98</t>
+          <t>PREP FL Final 1.98.</t>
         </is>
       </c>
     </row>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>PREP FL 1.99</t>
+          <t>PREP FL Final 1.99.</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>PREP FL 1.100</t>
+          <t>PREP FL Final 1.100.</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>PREP FL 2.1</t>
+          <t>PREP FL Final 2.1.</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>PREP FL 2.2</t>
+          <t>PREP FL Final 2.2.</t>
         </is>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>PREP FL 2.3</t>
+          <t>PREP FL Final 2.3.</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>PREP FL 2.4</t>
+          <t>PREP FL Final 2.4.</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>PREP FL 2.5</t>
+          <t>PREP FL Final 2.5.</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>PREP FL 2.6</t>
+          <t>PREP FL Final 2.6.</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>PREP FL 2.7</t>
+          <t>PREP FL Final 2.7.</t>
         </is>
       </c>
     </row>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>PREP FL 2.8</t>
+          <t>PREP FL Final 2.8.</t>
         </is>
       </c>
     </row>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>PREP FL 2.9</t>
+          <t>PREP FL Final 2.9.</t>
         </is>
       </c>
     </row>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>PREP FL 2.10</t>
+          <t>PREP FL Final 2.10.</t>
         </is>
       </c>
     </row>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>PREP FL 2.11</t>
+          <t>PREP FL Final 2.11.</t>
         </is>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>PREP FL 2.12</t>
+          <t>PREP FL Final 2.12.</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>PREP FL 2.13</t>
+          <t>PREP FL Final 2.13.</t>
         </is>
       </c>
     </row>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>PREP FL 2.14</t>
+          <t>PREP FL Final 2.14.</t>
         </is>
       </c>
     </row>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>PREP FL 2.15</t>
+          <t>PREP FL Final 2.15.</t>
         </is>
       </c>
     </row>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>PREP FL 2.16</t>
+          <t>PREP FL Final 2.16.</t>
         </is>
       </c>
     </row>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>PREP FL 2.17</t>
+          <t>PREP FL Final 2.17.</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>PREP FL 2.18</t>
+          <t>PREP FL Final 2.18.</t>
         </is>
       </c>
     </row>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>PREP FL 2.19</t>
+          <t>PREP FL Final 2.19.</t>
         </is>
       </c>
     </row>
@@ -10135,7 +10135,7 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>PREP FL 2.20</t>
+          <t>PREP FL Final 2.2.</t>
         </is>
       </c>
     </row>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>PREP FL 2.21</t>
+          <t>PREP FL Final 2.21.</t>
         </is>
       </c>
     </row>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>PREP FL 2.22</t>
+          <t>PREP FL Final 2.22.</t>
         </is>
       </c>
     </row>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>PREP FL 2.23</t>
+          <t>PREP FL Final 2.23.</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>PREP FL 2.24</t>
+          <t>PREP FL Final 2.24.</t>
         </is>
       </c>
     </row>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>PREP FL 2.25</t>
+          <t>PREP FL Final 2.25.</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>PREP FL 2.26</t>
+          <t>PREP FL Final 2.26.</t>
         </is>
       </c>
     </row>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>PREP FL 2.27</t>
+          <t>PREP FL Final 2.27.</t>
         </is>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>PREP FL 2.28</t>
+          <t>PREP FL Final 2.28.</t>
         </is>
       </c>
     </row>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>PREP FL 2.29</t>
+          <t>PREP FL Final 2.29.</t>
         </is>
       </c>
     </row>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>PREP FL 2.30</t>
+          <t>PREP FL Final 2.3.</t>
         </is>
       </c>
     </row>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>PREP FL 2.31</t>
+          <t>PREP FL Final 2.31.</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>PREP FL 2.32</t>
+          <t>PREP FL Final 2.32.</t>
         </is>
       </c>
     </row>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>PREP FL 2.33</t>
+          <t>PREP FL Final 2.33.</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>PREP FL 2.34</t>
+          <t>PREP FL Final 2.34.</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>PREP FL 2.35</t>
+          <t>PREP FL Final 2.35.</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>PREP FL 2.36</t>
+          <t>PREP FL Final 2.36.</t>
         </is>
       </c>
     </row>
@@ -11516,7 +11516,7 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>PREP FL 2.37</t>
+          <t>PREP FL Final 2.37.</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>PREP FL 2.38</t>
+          <t>PREP FL Final 2.38.</t>
         </is>
       </c>
     </row>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>PREP FL 2.39</t>
+          <t>PREP FL Final 2.39.</t>
         </is>
       </c>
     </row>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>PREP FL 2.40</t>
+          <t>PREP FL Final 2.4.</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>PREP FL 2.41</t>
+          <t>PREP FL Final 2.41.</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>PREP FL 2.42</t>
+          <t>PREP FL Final 2.42.</t>
         </is>
       </c>
     </row>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>PREP FL 2.43</t>
+          <t>PREP FL Final 2.43.</t>
         </is>
       </c>
     </row>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>PREP FL 2.44</t>
+          <t>PREP FL Final 2.44.</t>
         </is>
       </c>
     </row>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>PREP FL 2.45</t>
+          <t>PREP FL Final 2.45.</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>PREP FL 2.46</t>
+          <t>PREP FL Final 2.46.</t>
         </is>
       </c>
     </row>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>PREP FL 2.47</t>
+          <t>PREP FL Final 2.47.</t>
         </is>
       </c>
     </row>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>PREP FL 2.48</t>
+          <t>PREP FL Final 2.48.</t>
         </is>
       </c>
     </row>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>PREP FL 2.49</t>
+          <t>PREP FL Final 2.49.</t>
         </is>
       </c>
     </row>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="G747" t="inlineStr">
         <is>
-          <t>PREP FL 2.50</t>
+          <t>PREP FL Final 2.5.</t>
         </is>
       </c>
     </row>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>PREP FL 2.51</t>
+          <t>PREP FL Final 2.51.</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>PREP FL 2.52</t>
+          <t>PREP FL Final 2.52.</t>
         </is>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>PREP FL 2.53</t>
+          <t>PREP FL Final 2.53.</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>PREP FL 2.54</t>
+          <t>PREP FL Final 2.54.</t>
         </is>
       </c>
     </row>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="G772" t="inlineStr">
         <is>
-          <t>PREP FL 2.55</t>
+          <t>PREP FL Final 2.55.</t>
         </is>
       </c>
     </row>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>PREP FL 2.56</t>
+          <t>PREP FL Final 2.56.</t>
         </is>
       </c>
     </row>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>PREP FL 2.57</t>
+          <t>PREP FL Final 2.57.</t>
         </is>
       </c>
     </row>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>PREP FL 2.58</t>
+          <t>PREP FL Final 2.58.</t>
         </is>
       </c>
     </row>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>PREP FL 2.59</t>
+          <t>PREP FL Final 2.59.</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>PREP FL 2.60</t>
+          <t>PREP FL Final 2.6.</t>
         </is>
       </c>
     </row>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="G802" t="inlineStr">
         <is>
-          <t>PREP FL 2.61</t>
+          <t>PREP FL Final 2.61.</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="G807" t="inlineStr">
         <is>
-          <t>PREP FL 2.62</t>
+          <t>PREP FL Final 2.62.</t>
         </is>
       </c>
     </row>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>PREP FL 2.63</t>
+          <t>PREP FL Final 2.63.</t>
         </is>
       </c>
     </row>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="G817" t="inlineStr">
         <is>
-          <t>PREP FL 2.64</t>
+          <t>PREP FL Final 2.64.</t>
         </is>
       </c>
     </row>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="G822" t="inlineStr">
         <is>
-          <t>PREP FL 2.65</t>
+          <t>PREP FL Final 2.65.</t>
         </is>
       </c>
     </row>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="G827" t="inlineStr">
         <is>
-          <t>PREP FL 2.66</t>
+          <t>PREP FL Final 2.66.</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       </c>
       <c r="G832" t="inlineStr">
         <is>
-          <t>PREP FL 2.67</t>
+          <t>PREP FL Final 2.67.</t>
         </is>
       </c>
     </row>
@@ -14023,7 +14023,7 @@
       </c>
       <c r="G837" t="inlineStr">
         <is>
-          <t>PREP FL 2.68</t>
+          <t>PREP FL Final 2.68.</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="G842" t="inlineStr">
         <is>
-          <t>PREP FL 2.69</t>
+          <t>PREP FL Final 2.69.</t>
         </is>
       </c>
     </row>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="G847" t="inlineStr">
         <is>
-          <t>PREP FL 2.70</t>
+          <t>PREP FL Final 2.7.</t>
         </is>
       </c>
     </row>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="G852" t="inlineStr">
         <is>
-          <t>PREP FL 2.71</t>
+          <t>PREP FL Final 2.71.</t>
         </is>
       </c>
     </row>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="G857" t="inlineStr">
         <is>
-          <t>PREP FL 2.72</t>
+          <t>PREP FL Final 2.72.</t>
         </is>
       </c>
     </row>
@@ -14428,7 +14428,7 @@
       </c>
       <c r="G862" t="inlineStr">
         <is>
-          <t>PREP FL 2.73</t>
+          <t>PREP FL Final 2.73.</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>PREP FL 2.74</t>
+          <t>PREP FL Final 2.74.</t>
         </is>
       </c>
     </row>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>PREP FL 2.75</t>
+          <t>PREP FL Final 2.75.</t>
         </is>
       </c>
     </row>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>PREP FL 2.76</t>
+          <t>PREP FL Final 2.76.</t>
         </is>
       </c>
     </row>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>PREP FL 2.77</t>
+          <t>PREP FL Final 2.77.</t>
         </is>
       </c>
     </row>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t>PREP FL 2.78</t>
+          <t>PREP FL Final 2.78.</t>
         </is>
       </c>
     </row>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>PREP FL 2.79</t>
+          <t>PREP FL Final 2.79.</t>
         </is>
       </c>
     </row>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>PREP FL 2.80</t>
+          <t>PREP FL Final 2.8.</t>
         </is>
       </c>
     </row>
@@ -15076,7 +15076,7 @@
       </c>
       <c r="G902" t="inlineStr">
         <is>
-          <t>PREP FL 2.81</t>
+          <t>PREP FL Final 2.81.</t>
         </is>
       </c>
     </row>
@@ -15157,7 +15157,7 @@
       </c>
       <c r="G907" t="inlineStr">
         <is>
-          <t>PREP FL 2.82</t>
+          <t>PREP FL Final 2.82.</t>
         </is>
       </c>
     </row>
@@ -15238,7 +15238,7 @@
       </c>
       <c r="G912" t="inlineStr">
         <is>
-          <t>PREP FL 2.83</t>
+          <t>PREP FL Final 2.83.</t>
         </is>
       </c>
     </row>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>PREP FL 2.84</t>
+          <t>PREP FL Final 2.84.</t>
         </is>
       </c>
     </row>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>PREP FL 2.85</t>
+          <t>PREP FL Final 2.85.</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="G927" t="inlineStr">
         <is>
-          <t>PREP FL 2.86</t>
+          <t>PREP FL Final 2.86.</t>
         </is>
       </c>
     </row>
@@ -15562,7 +15562,7 @@
       </c>
       <c r="G932" t="inlineStr">
         <is>
-          <t>PREP FL 2.87</t>
+          <t>PREP FL Final 2.87.</t>
         </is>
       </c>
     </row>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t>PREP FL 2.88</t>
+          <t>PREP FL Final 2.88.</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>PREP FL 2.89</t>
+          <t>PREP FL Final 2.89.</t>
         </is>
       </c>
     </row>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>PREP FL 2.90</t>
+          <t>PREP FL Final 2.9.</t>
         </is>
       </c>
     </row>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="G952" t="inlineStr">
         <is>
-          <t>PREP FL 2.91</t>
+          <t>PREP FL Final 2.91.</t>
         </is>
       </c>
     </row>
@@ -15967,7 +15967,7 @@
       </c>
       <c r="G957" t="inlineStr">
         <is>
-          <t>PREP FL 2.92</t>
+          <t>PREP FL Final 2.92.</t>
         </is>
       </c>
     </row>
@@ -16048,7 +16048,7 @@
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>PREP FL 2.93</t>
+          <t>PREP FL Final 2.93.</t>
         </is>
       </c>
     </row>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="G967" t="inlineStr">
         <is>
-          <t>PREP FL 2.94</t>
+          <t>PREP FL Final 2.94.</t>
         </is>
       </c>
     </row>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="G972" t="inlineStr">
         <is>
-          <t>PREP FL 2.95</t>
+          <t>PREP FL Final 2.95.</t>
         </is>
       </c>
     </row>
@@ -16291,7 +16291,7 @@
       </c>
       <c r="G977" t="inlineStr">
         <is>
-          <t>PREP FL 2.96</t>
+          <t>PREP FL Final 2.96.</t>
         </is>
       </c>
     </row>
@@ -16372,7 +16372,7 @@
       </c>
       <c r="G982" t="inlineStr">
         <is>
-          <t>PREP FL 2.97</t>
+          <t>PREP FL Final 2.97.</t>
         </is>
       </c>
     </row>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>PREP FL 2.98</t>
+          <t>PREP FL Final 2.98.</t>
         </is>
       </c>
     </row>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="G992" t="inlineStr">
         <is>
-          <t>PREP FL 2.99</t>
+          <t>PREP FL Final 2.99.</t>
         </is>
       </c>
     </row>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="G997" t="inlineStr">
         <is>
-          <t>PREP FL 2.100</t>
+          <t>PREP FL Final 2.100.</t>
         </is>
       </c>
     </row>
@@ -16682,7 +16682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F412"/>
+  <dimension ref="A1:F396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -16787,7 +16787,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.1</t>
+          <t xml:space="preserve">  PREP FL Final 1.1.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -16803,7 +16803,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.10</t>
+          <t xml:space="preserve">  PREP FL Final 1.10.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -16819,7 +16819,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.100</t>
+          <t xml:space="preserve">  PREP FL Final 1.100.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -16835,7 +16835,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.11</t>
+          <t xml:space="preserve">  PREP FL Final 1.11.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -16851,7 +16851,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.12</t>
+          <t xml:space="preserve">  PREP FL Final 1.12.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -16867,7 +16867,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.13</t>
+          <t xml:space="preserve">  PREP FL Final 1.13.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -16883,7 +16883,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.14</t>
+          <t xml:space="preserve">  PREP FL Final 1.14.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -16899,7 +16899,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.15</t>
+          <t xml:space="preserve">  PREP FL Final 1.15.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -16915,7 +16915,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.16</t>
+          <t xml:space="preserve">  PREP FL Final 1.16.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -16931,7 +16931,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.17</t>
+          <t xml:space="preserve">  PREP FL Final 1.17.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -16947,7 +16947,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.18</t>
+          <t xml:space="preserve">  PREP FL Final 1.18.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -16963,7 +16963,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.19</t>
+          <t xml:space="preserve">  PREP FL Final 1.19.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -16979,12 +16979,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.2</t>
+          <t xml:space="preserve">  PREP FL Final 1.2.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -16995,7 +16995,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.20</t>
+          <t xml:space="preserve">  PREP FL Final 1.21.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -17011,7 +17011,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.21</t>
+          <t xml:space="preserve">  PREP FL Final 1.22.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -17027,7 +17027,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.22</t>
+          <t xml:space="preserve">  PREP FL Final 1.23.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -17043,7 +17043,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.23</t>
+          <t xml:space="preserve">  PREP FL Final 1.24.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -17059,7 +17059,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.24</t>
+          <t xml:space="preserve">  PREP FL Final 1.25.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -17075,7 +17075,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.25</t>
+          <t xml:space="preserve">  PREP FL Final 1.26.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -17091,7 +17091,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.26</t>
+          <t xml:space="preserve">  PREP FL Final 1.27.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -17107,7 +17107,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.27</t>
+          <t xml:space="preserve">  PREP FL Final 1.28.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -17123,7 +17123,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.28</t>
+          <t xml:space="preserve">  PREP FL Final 1.29.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -17139,12 +17139,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.29</t>
+          <t xml:space="preserve">  PREP FL Final 1.3.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -17155,7 +17155,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.3</t>
+          <t xml:space="preserve">  PREP FL Final 1.31.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -17171,7 +17171,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.30</t>
+          <t xml:space="preserve">  PREP FL Final 1.32.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -17187,7 +17187,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.31</t>
+          <t xml:space="preserve">  PREP FL Final 1.33.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -17203,7 +17203,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.32</t>
+          <t xml:space="preserve">  PREP FL Final 1.34.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -17219,7 +17219,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.33</t>
+          <t xml:space="preserve">  PREP FL Final 1.35.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -17235,7 +17235,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.34</t>
+          <t xml:space="preserve">  PREP FL Final 1.36.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -17251,7 +17251,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.35</t>
+          <t xml:space="preserve">  PREP FL Final 1.37.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -17267,7 +17267,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.36</t>
+          <t xml:space="preserve">  PREP FL Final 1.38.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -17283,7 +17283,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.37</t>
+          <t xml:space="preserve">  PREP FL Final 1.39.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -17299,12 +17299,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.38</t>
+          <t xml:space="preserve">  PREP FL Final 1.4.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -17315,7 +17315,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.39</t>
+          <t xml:space="preserve">  PREP FL Final 1.41.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -17331,7 +17331,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.4</t>
+          <t xml:space="preserve">  PREP FL Final 1.42.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -17347,7 +17347,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.40</t>
+          <t xml:space="preserve">  PREP FL Final 1.43.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -17363,7 +17363,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.41</t>
+          <t xml:space="preserve">  PREP FL Final 1.44.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -17379,7 +17379,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.42</t>
+          <t xml:space="preserve">  PREP FL Final 1.45.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -17395,7 +17395,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.43</t>
+          <t xml:space="preserve">  PREP FL Final 1.46.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -17411,7 +17411,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.44</t>
+          <t xml:space="preserve">  PREP FL Final 1.47.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -17427,7 +17427,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.45</t>
+          <t xml:space="preserve">  PREP FL Final 1.48.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -17443,7 +17443,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.46</t>
+          <t xml:space="preserve">  PREP FL Final 1.49.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -17459,12 +17459,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.47</t>
+          <t xml:space="preserve">  PREP FL Final 1.5.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -17475,7 +17475,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.48</t>
+          <t xml:space="preserve">  PREP FL Final 1.51.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -17491,7 +17491,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.49</t>
+          <t xml:space="preserve">  PREP FL Final 1.52.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -17507,7 +17507,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.5</t>
+          <t xml:space="preserve">  PREP FL Final 1.53.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -17523,7 +17523,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.50</t>
+          <t xml:space="preserve">  PREP FL Final 1.54.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -17539,7 +17539,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.51</t>
+          <t xml:space="preserve">  PREP FL Final 1.55.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -17555,7 +17555,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.52</t>
+          <t xml:space="preserve">  PREP FL Final 1.56.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -17571,7 +17571,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.53</t>
+          <t xml:space="preserve">  PREP FL Final 1.57.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -17587,7 +17587,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.54</t>
+          <t xml:space="preserve">  PREP FL Final 1.58.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -17603,7 +17603,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.55</t>
+          <t xml:space="preserve">  PREP FL Final 1.59.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -17619,12 +17619,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.56</t>
+          <t xml:space="preserve">  PREP FL Final 1.6.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -17635,7 +17635,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.57</t>
+          <t xml:space="preserve">  PREP FL Final 1.61.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -17651,7 +17651,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.58</t>
+          <t xml:space="preserve">  PREP FL Final 1.62.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -17667,7 +17667,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.59</t>
+          <t xml:space="preserve">  PREP FL Final 1.63.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -17683,7 +17683,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.6</t>
+          <t xml:space="preserve">  PREP FL Final 1.64.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -17699,7 +17699,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.60</t>
+          <t xml:space="preserve">  PREP FL Final 1.65.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -17715,7 +17715,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.61</t>
+          <t xml:space="preserve">  PREP FL Final 1.66.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -17731,7 +17731,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.62</t>
+          <t xml:space="preserve">  PREP FL Final 1.67.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -17747,7 +17747,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.63</t>
+          <t xml:space="preserve">  PREP FL Final 1.68.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -17763,7 +17763,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.64</t>
+          <t xml:space="preserve">  PREP FL Final 1.69.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -17779,12 +17779,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.65</t>
+          <t xml:space="preserve">  PREP FL Final 1.7.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -17795,7 +17795,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.66</t>
+          <t xml:space="preserve">  PREP FL Final 1.71.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -17811,7 +17811,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.67</t>
+          <t xml:space="preserve">  PREP FL Final 1.72.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -17827,7 +17827,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.68</t>
+          <t xml:space="preserve">  PREP FL Final 1.73.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -17843,7 +17843,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.69</t>
+          <t xml:space="preserve">  PREP FL Final 1.74.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -17859,7 +17859,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.7</t>
+          <t xml:space="preserve">  PREP FL Final 1.75.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -17875,7 +17875,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.70</t>
+          <t xml:space="preserve">  PREP FL Final 1.76.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -17891,7 +17891,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.71</t>
+          <t xml:space="preserve">  PREP FL Final 1.77.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -17907,7 +17907,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.72</t>
+          <t xml:space="preserve">  PREP FL Final 1.78.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -17923,7 +17923,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.73</t>
+          <t xml:space="preserve">  PREP FL Final 1.79.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -17939,12 +17939,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.74</t>
+          <t xml:space="preserve">  PREP FL Final 1.8.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -17955,7 +17955,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.75</t>
+          <t xml:space="preserve">  PREP FL Final 1.81.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -17971,7 +17971,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.76</t>
+          <t xml:space="preserve">  PREP FL Final 1.82.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -17987,7 +17987,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.77</t>
+          <t xml:space="preserve">  PREP FL Final 1.83.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -18003,7 +18003,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.78</t>
+          <t xml:space="preserve">  PREP FL Final 1.84.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -18019,7 +18019,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.79</t>
+          <t xml:space="preserve">  PREP FL Final 1.85.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -18035,7 +18035,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.8</t>
+          <t xml:space="preserve">  PREP FL Final 1.86.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -18051,7 +18051,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.80</t>
+          <t xml:space="preserve">  PREP FL Final 1.87.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -18067,7 +18067,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.81</t>
+          <t xml:space="preserve">  PREP FL Final 1.88.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -18083,7 +18083,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.82</t>
+          <t xml:space="preserve">  PREP FL Final 1.89.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -18099,12 +18099,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.83</t>
+          <t xml:space="preserve">  PREP FL Final 1.9.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -18115,7 +18115,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.84</t>
+          <t xml:space="preserve">  PREP FL Final 1.91.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -18131,7 +18131,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.85</t>
+          <t xml:space="preserve">  PREP FL Final 1.92.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -18147,7 +18147,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.86</t>
+          <t xml:space="preserve">  PREP FL Final 1.93.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -18163,7 +18163,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.87</t>
+          <t xml:space="preserve">  PREP FL Final 1.94.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -18179,7 +18179,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.88</t>
+          <t xml:space="preserve">  PREP FL Final 1.95.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -18195,7 +18195,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.89</t>
+          <t xml:space="preserve">  PREP FL Final 1.96.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -18211,7 +18211,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.9</t>
+          <t xml:space="preserve">  PREP FL Final 1.97.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -18227,7 +18227,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.90</t>
+          <t xml:space="preserve">  PREP FL Final 1.98.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -18243,7 +18243,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.91</t>
+          <t xml:space="preserve">  PREP FL Final 1.99.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -18259,7 +18259,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.92</t>
+          <t xml:space="preserve">  PREP FL Final 2.1.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -18275,7 +18275,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.93</t>
+          <t xml:space="preserve">  PREP FL Final 2.10.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -18291,7 +18291,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.94</t>
+          <t xml:space="preserve">  PREP FL Final 2.100.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -18307,7 +18307,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.95</t>
+          <t xml:space="preserve">  PREP FL Final 2.11.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -18323,7 +18323,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.96</t>
+          <t xml:space="preserve">  PREP FL Final 2.12.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -18339,7 +18339,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.97</t>
+          <t xml:space="preserve">  PREP FL Final 2.13.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -18355,7 +18355,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.98</t>
+          <t xml:space="preserve">  PREP FL Final 2.14.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -18371,7 +18371,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 1.99</t>
+          <t xml:space="preserve">  PREP FL Final 2.15.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -18387,7 +18387,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.1</t>
+          <t xml:space="preserve">  PREP FL Final 2.16.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -18403,7 +18403,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.10</t>
+          <t xml:space="preserve">  PREP FL Final 2.17.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -18419,7 +18419,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.100</t>
+          <t xml:space="preserve">  PREP FL Final 2.18.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -18435,7 +18435,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.11</t>
+          <t xml:space="preserve">  PREP FL Final 2.19.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -18451,12 +18451,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.12</t>
+          <t xml:space="preserve">  PREP FL Final 2.2.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -18467,7 +18467,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.13</t>
+          <t xml:space="preserve">  PREP FL Final 2.21.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -18483,7 +18483,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.14</t>
+          <t xml:space="preserve">  PREP FL Final 2.22.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -18499,7 +18499,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.15</t>
+          <t xml:space="preserve">  PREP FL Final 2.23.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -18515,7 +18515,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.16</t>
+          <t xml:space="preserve">  PREP FL Final 2.24.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -18531,7 +18531,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.17</t>
+          <t xml:space="preserve">  PREP FL Final 2.25.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -18547,7 +18547,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.18</t>
+          <t xml:space="preserve">  PREP FL Final 2.26.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -18563,7 +18563,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.19</t>
+          <t xml:space="preserve">  PREP FL Final 2.27.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -18579,7 +18579,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.2</t>
+          <t xml:space="preserve">  PREP FL Final 2.28.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -18595,7 +18595,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.20</t>
+          <t xml:space="preserve">  PREP FL Final 2.29.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -18611,12 +18611,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.21</t>
+          <t xml:space="preserve">  PREP FL Final 2.3.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -18627,7 +18627,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.22</t>
+          <t xml:space="preserve">  PREP FL Final 2.31.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -18643,7 +18643,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.23</t>
+          <t xml:space="preserve">  PREP FL Final 2.32.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -18659,7 +18659,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.24</t>
+          <t xml:space="preserve">  PREP FL Final 2.33.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -18675,7 +18675,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.25</t>
+          <t xml:space="preserve">  PREP FL Final 2.34.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -18691,7 +18691,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.26</t>
+          <t xml:space="preserve">  PREP FL Final 2.35.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -18707,7 +18707,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.27</t>
+          <t xml:space="preserve">  PREP FL Final 2.36.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -18723,7 +18723,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.28</t>
+          <t xml:space="preserve">  PREP FL Final 2.37.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -18739,7 +18739,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.29</t>
+          <t xml:space="preserve">  PREP FL Final 2.38.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -18755,7 +18755,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.3</t>
+          <t xml:space="preserve">  PREP FL Final 2.39.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -18771,12 +18771,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.30</t>
+          <t xml:space="preserve">  PREP FL Final 2.4.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.31</t>
+          <t xml:space="preserve">  PREP FL Final 2.41.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -18803,7 +18803,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.32</t>
+          <t xml:space="preserve">  PREP FL Final 2.42.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -18819,7 +18819,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.33</t>
+          <t xml:space="preserve">  PREP FL Final 2.43.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -18835,7 +18835,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.34</t>
+          <t xml:space="preserve">  PREP FL Final 2.44.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -18851,7 +18851,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.35</t>
+          <t xml:space="preserve">  PREP FL Final 2.45.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -18867,7 +18867,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.36</t>
+          <t xml:space="preserve">  PREP FL Final 2.46.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -18883,7 +18883,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.37</t>
+          <t xml:space="preserve">  PREP FL Final 2.47.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -18899,7 +18899,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.38</t>
+          <t xml:space="preserve">  PREP FL Final 2.48.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -18915,7 +18915,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.39</t>
+          <t xml:space="preserve">  PREP FL Final 2.49.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -18931,12 +18931,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.4</t>
+          <t xml:space="preserve">  PREP FL Final 2.5.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -18947,7 +18947,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.40</t>
+          <t xml:space="preserve">  PREP FL Final 2.51.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -18963,7 +18963,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.41</t>
+          <t xml:space="preserve">  PREP FL Final 2.52.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -18979,7 +18979,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.42</t>
+          <t xml:space="preserve">  PREP FL Final 2.53.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -18995,7 +18995,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.43</t>
+          <t xml:space="preserve">  PREP FL Final 2.54.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -19011,7 +19011,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.44</t>
+          <t xml:space="preserve">  PREP FL Final 2.55.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -19027,7 +19027,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.45</t>
+          <t xml:space="preserve">  PREP FL Final 2.56.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -19043,7 +19043,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.46</t>
+          <t xml:space="preserve">  PREP FL Final 2.57.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -19059,7 +19059,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.47</t>
+          <t xml:space="preserve">  PREP FL Final 2.58.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -19075,7 +19075,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.48</t>
+          <t xml:space="preserve">  PREP FL Final 2.59.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -19091,12 +19091,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.49</t>
+          <t xml:space="preserve">  PREP FL Final 2.6.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -19107,7 +19107,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.5</t>
+          <t xml:space="preserve">  PREP FL Final 2.61.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -19123,7 +19123,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.50</t>
+          <t xml:space="preserve">  PREP FL Final 2.62.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -19139,7 +19139,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.51</t>
+          <t xml:space="preserve">  PREP FL Final 2.63.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -19155,7 +19155,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.52</t>
+          <t xml:space="preserve">  PREP FL Final 2.64.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -19171,7 +19171,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.53</t>
+          <t xml:space="preserve">  PREP FL Final 2.65.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -19187,7 +19187,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.54</t>
+          <t xml:space="preserve">  PREP FL Final 2.66.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -19203,7 +19203,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.55</t>
+          <t xml:space="preserve">  PREP FL Final 2.67.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -19219,7 +19219,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.56</t>
+          <t xml:space="preserve">  PREP FL Final 2.68.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -19235,7 +19235,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.57</t>
+          <t xml:space="preserve">  PREP FL Final 2.69.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -19251,12 +19251,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.58</t>
+          <t xml:space="preserve">  PREP FL Final 2.7.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.59</t>
+          <t xml:space="preserve">  PREP FL Final 2.71.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -19283,7 +19283,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.6</t>
+          <t xml:space="preserve">  PREP FL Final 2.72.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -19299,7 +19299,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.60</t>
+          <t xml:space="preserve">  PREP FL Final 2.73.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -19315,7 +19315,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.61</t>
+          <t xml:space="preserve">  PREP FL Final 2.74.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -19331,7 +19331,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.62</t>
+          <t xml:space="preserve">  PREP FL Final 2.75.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -19347,7 +19347,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.63</t>
+          <t xml:space="preserve">  PREP FL Final 2.76.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -19363,7 +19363,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.64</t>
+          <t xml:space="preserve">  PREP FL Final 2.77.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -19379,7 +19379,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.65</t>
+          <t xml:space="preserve">  PREP FL Final 2.78.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -19395,7 +19395,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.66</t>
+          <t xml:space="preserve">  PREP FL Final 2.79.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -19411,12 +19411,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.67</t>
+          <t xml:space="preserve">  PREP FL Final 2.8.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -19427,7 +19427,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.68</t>
+          <t xml:space="preserve">  PREP FL Final 2.81.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -19443,7 +19443,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.69</t>
+          <t xml:space="preserve">  PREP FL Final 2.82.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -19459,7 +19459,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.7</t>
+          <t xml:space="preserve">  PREP FL Final 2.83.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -19475,7 +19475,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.70</t>
+          <t xml:space="preserve">  PREP FL Final 2.84.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -19491,7 +19491,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.71</t>
+          <t xml:space="preserve">  PREP FL Final 2.85.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -19507,7 +19507,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.72</t>
+          <t xml:space="preserve">  PREP FL Final 2.86.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -19523,7 +19523,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.73</t>
+          <t xml:space="preserve">  PREP FL Final 2.87.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -19539,7 +19539,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.74</t>
+          <t xml:space="preserve">  PREP FL Final 2.88.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -19555,7 +19555,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.75</t>
+          <t xml:space="preserve">  PREP FL Final 2.89.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -19571,12 +19571,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.76</t>
+          <t xml:space="preserve">  PREP FL Final 2.9.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1 questions</t>
+          <t>2 questions</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -19587,7 +19587,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.77</t>
+          <t xml:space="preserve">  PREP FL Final 2.91.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -19603,7 +19603,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.78</t>
+          <t xml:space="preserve">  PREP FL Final 2.92.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -19619,7 +19619,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.79</t>
+          <t xml:space="preserve">  PREP FL Final 2.93.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -19635,7 +19635,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.8</t>
+          <t xml:space="preserve">  PREP FL Final 2.94.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -19651,7 +19651,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.80</t>
+          <t xml:space="preserve">  PREP FL Final 2.95.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -19667,7 +19667,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.81</t>
+          <t xml:space="preserve">  PREP FL Final 2.96.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -19683,7 +19683,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.82</t>
+          <t xml:space="preserve">  PREP FL Final 2.97.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -19699,7 +19699,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.83</t>
+          <t xml:space="preserve">  PREP FL Final 2.98.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -19715,7 +19715,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.84</t>
+          <t xml:space="preserve">  PREP FL Final 2.99.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -19729,16 +19729,8 @@
       <c r="F191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  PREP FL 2.85</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>1 questions</t>
-        </is>
-      </c>
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
@@ -19747,14 +19739,10 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.86</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>1 questions</t>
-        </is>
-      </c>
+          <t>Parsing Errors:</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -19763,30 +19751,18 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.87</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>1 questions</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  None detected</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  PREP FL 2.88</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>1 questions</t>
-        </is>
-      </c>
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
@@ -19795,281 +19771,497 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.89</t>
+          <t>Track</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+          <t>Q#</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Question Preview</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Correct Answer</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Page Ref</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Has Explanation</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.9</t>
+          <t>PREP FL Final 1.1.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>When a joint tenant dies, what happens to the t...</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.90</t>
+          <t>PREP FL Final 1.2.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Which of the following is NOT required when rec...</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.91</t>
+          <t>PREP FL Final 1.3.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>In what kind of easement is there a dominant te...</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.92</t>
+          <t>PREP FL Final 1.4.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>A court might grant an easement by prescription if</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.93</t>
+          <t>PREP FL Final 1.5.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>A lien is a</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.94</t>
+          <t>PREP FL Final 1.6.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Which of the following best characterizes a Com...</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.95</t>
+          <t>PREP FL Final 1.7.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Mortgage financing is the practice of</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.96</t>
+          <t>PREP FL Final 1.8.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>What is the function of a note in a mortgage or...</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.97</t>
+          <t>PREP FL Final 1.9.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>If a borrower obtains an interest-only loan of ...</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.98</t>
+          <t>PREP FL Final 1.10.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Which of the following is true of an amortizing...</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREP FL 2.99</t>
+          <t>PREP FL Final 1.11.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>1 questions</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>The real estate industry is regulated by federa...</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr"/>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>PREP FL Final 1.12.</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>How long is an initial application for licensur...</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Parsing Errors:</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
+          <t>PREP FL Final 1.13.</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Which of the following is true regarding the sa...</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">  None detected</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
+          <t>PREP FL Final 1.14.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>An applicant must take and pass the state licen...</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr"/>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>PREP FL Final 1.15.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>If an applicant for a broker license has been l...</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Track</t>
+          <t>PREP FL Final 1.16.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Q#</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Question Preview</t>
+          <t>Escrow account records must be kept for</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Correct Answer</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Page Ref</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Has Explanation</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>PREP FL 1.1</t>
+          <t>PREP FL Final 1.17.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>When a joint tenant dies, what happens to the t...</t>
+          <t>If escrow funds are placed in an interest-beari...</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -20087,22 +20279,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>PREP FL 1.2</t>
+          <t>PREP FL Final 1.18.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Which of the following is NOT required when rec...</t>
+          <t>If there is a conflict over escrow fund disburs...</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -20115,22 +20307,22 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>PREP FL 1.3</t>
+          <t>PREP FL Final 1.19.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>In what kind of easement is there a dominant te...</t>
+          <t>Which of these statements is true regarding opi...</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -20143,22 +20335,22 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>PREP FL 1.4</t>
+          <t>PREP FL Final 1.2.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>A court might grant an easement by prescription if</t>
+          <t>Which of the following is prohibited?</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -20171,22 +20363,22 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PREP FL 1.5</t>
+          <t>PREP FL Final 1.21.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>A lien is a</t>
+          <t>Which of the following situations illustrates t...</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -20199,22 +20391,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>PREP FL 1.6</t>
+          <t>PREP FL Final 1.22.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Which of the following best characterizes a Com...</t>
+          <t>Which of the following statements properly desc...</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -20227,22 +20419,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PREP FL 1.7</t>
+          <t>PREP FL Final 1.23.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Mortgage financing is the practice of</t>
+          <t>The best comparable property for use in the sal...</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -20255,17 +20447,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PREP FL 1.8</t>
+          <t>PREP FL Final 1.24.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>What is the function of a note in a mortgage or...</t>
+          <t>Which of the following statements properly desc...</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -20283,17 +20475,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PREP FL 1.9</t>
+          <t>PREP FL Final 1.25.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>If a borrower obtains an interest-only loan of ...</t>
+          <t>A property is being appraised by the cost appro...</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -20311,22 +20503,22 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PREP FL 1.10</t>
+          <t>PREP FL Final 1.26.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Which of the following is true of an amortizing...</t>
+          <t>To avoid violating the Real Estate Settlement P...</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -20339,22 +20531,22 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>PREP FL 1.11</t>
+          <t>PREP FL Final 1.27.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>The real estate industry is regulated by federa...</t>
+          <t>Which of the following items is paid in arrears?</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -20367,22 +20559,22 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>PREP FL 1.12</t>
+          <t>PREP FL Final 1.28.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>How long is an initial application for licensur...</t>
+          <t>A sale transaction closes on April 1, the ninet...</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -20395,17 +20587,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PREP FL 1.13</t>
+          <t>PREP FL Final 1.29.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Which of the following is true regarding the sa...</t>
+          <t>If demand is increasing, what would be the like...</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -20423,22 +20615,22 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>PREP FL 1.14</t>
+          <t>PREP FL Final 1.3.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>An applicant must take and pass the state licen...</t>
+          <t>According to federal banking law, which of the ...</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -20451,22 +20643,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>PREP FL 1.15</t>
+          <t>PREP FL Final 1.31.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>If an applicant for a broker license has been l...</t>
+          <t>Nonresidents applying for a license in Florida</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -20479,17 +20671,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PREP FL 1.16</t>
+          <t>PREP FL Final 1.32.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Escrow account records must be kept for</t>
+          <t>All broker licensees are required to complete _...</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -20507,22 +20699,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PREP FL 1.17</t>
+          <t>PREP FL Final 1.33.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>If escrow funds are placed in an interest-beari...</t>
+          <t>A licensee may complete a 28-hour education cou...</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -20535,17 +20727,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PREP FL 1.18</t>
+          <t>PREP FL Final 1.34.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>If there is a conflict over escrow fund disburs...</t>
+          <t>FREC members serve __________ terms</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -20563,17 +20755,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>PREP FL 1.19</t>
+          <t>PREP FL Final 1.35.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Which of these statements is true regarding opi...</t>
+          <t>Tom obtained his sales associate license in Apr...</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -20591,22 +20783,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>PREP FL 1.20</t>
+          <t>PREP FL Final 1.36.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Which of the following is prohibited?</t>
+          <t>Which of the following statements is true in re...</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -20619,22 +20811,22 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>PREP FL 1.21</t>
+          <t>PREP FL Final 1.37.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Which of the following situations illustrates t...</t>
+          <t>A homeowner receives a tax bill that includes a...</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -20647,17 +20839,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>PREP FL 1.22</t>
+          <t>PREP FL Final 1.38.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Which of the following statements properly desc...</t>
+          <t>What is the purpose of the Florida Growth Polic...</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -20675,22 +20867,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PREP FL 1.23</t>
+          <t>PREP FL Final 1.39.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>The best comparable property for use in the sal...</t>
+          <t>What is the relationship between master plannin...</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -20703,22 +20895,22 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PREP FL 1.24</t>
+          <t>PREP FL Final 1.4.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Which of the following statements properly desc...</t>
+          <t>What is the difference between a variance and a...</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -20731,22 +20923,22 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>PREP FL 1.25</t>
+          <t>PREP FL Final 1.41.</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>A property is being appraised by the cost appro...</t>
+          <t>Which of the following is an example of blockbu...</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -20759,22 +20951,22 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PREP FL 1.26</t>
+          <t>PREP FL Final 1.42.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>To avoid violating the Real Estate Settlement P...</t>
+          <t>The practice of redlining is specifically prohi...</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -20787,22 +20979,22 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>PREP FL 1.27</t>
+          <t>PREP FL Final 1.43.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Which of the following items is paid in arrears?</t>
+          <t>Under federal fair housing laws, the owner of a...</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -20815,17 +21007,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>PREP FL 1.28</t>
+          <t>PREP FL Final 1.44.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>A sale transaction closes on April 1, the ninet...</t>
+          <t>Sales involving a(n) _______________ require a ...</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -20843,22 +21035,22 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>PREP FL 1.29</t>
+          <t>PREP FL Final 1.45.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>If demand is increasing, what would be the like...</t>
+          <t>By definition, personal property</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -20871,22 +21063,22 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>PREP FL 1.30</t>
+          <t>PREP FL Final 1.46.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>According to federal banking law, which of the ...</t>
+          <t>The agency relationship is defined by</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -20899,22 +21091,22 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>PREP FL 1.31</t>
+          <t>PREP FL Final 1.47.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Nonresidents applying for a license in Florida</t>
+          <t>The agent and principal may terminate the agenc...</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
@@ -20927,17 +21119,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>PREP FL 1.32</t>
+          <t>PREP FL Final 1.48.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>All broker licensees are required to complete _...</t>
+          <t>One of the agent's fiduciary duties that contin...</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -20955,22 +21147,22 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>PREP FL 1.33</t>
+          <t>PREP FL Final 1.49.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>A licensee may complete a 28-hour education cou...</t>
+          <t>A buyer's broker owes the full set of fiduciary...</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -20983,22 +21175,22 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PREP FL 1.34</t>
+          <t>PREP FL Final 1.5.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>FREC members serve __________ terms</t>
+          <t>Among the duties of a broker who is acting as a...</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -21011,22 +21203,22 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>PREP FL 1.35</t>
+          <t>PREP FL Final 1.51.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Tom obtained his sales associate license in Apr...</t>
+          <t>What is a loan-to-value ratio?</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -21039,17 +21231,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>PREP FL 1.36</t>
+          <t>PREP FL Final 1.52.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Which of the following statements is true in re...</t>
+          <t>A loan applicant has an annual gross income of ...</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -21067,22 +21259,22 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PREP FL 1.37</t>
+          <t>PREP FL Final 1.53.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>A homeowner receives a tax bill that includes a...</t>
+          <t>A VA certificate of eligibility determines</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -21095,17 +21287,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>PREP FL 1.38</t>
+          <t>PREP FL Final 1.54.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>What is the purpose of the Florida Growth Polic...</t>
+          <t>The borrower in a mortgage loan transaction is ...</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -21123,22 +21315,22 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>PREP FL 1.39</t>
+          <t>PREP FL Final 1.55.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>What is the relationship between master plannin...</t>
+          <t>If a lender discovers that an applicant for a m...</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -21151,22 +21343,22 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PREP FL 1.40</t>
+          <t>PREP FL Final 1.56.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>What is the difference between a variance and a...</t>
+          <t>Which of the following best describes actual no...</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -21179,22 +21371,22 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>PREP FL 1.41</t>
+          <t>PREP FL Final 1.57.</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Which of the following is an example of blockbu...</t>
+          <t>Title can be voluntarily transferred by</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -21207,17 +21399,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>PREP FL 1.42</t>
+          <t>PREP FL Final 1.58.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>The practice of redlining is specifically prohi...</t>
+          <t>One of the conditions an adverse possessor must...</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -21235,22 +21427,22 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PREP FL 1.43</t>
+          <t>PREP FL Final 1.59.</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Under federal fair housing laws, the owner of a...</t>
+          <t>Among a landlord's primary obligations in a lea...</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -21263,17 +21455,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PREP FL 1.44</t>
+          <t>PREP FL Final 1.6.</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Sales involving a(n) _______________ require a ...</t>
+          <t>Which type of map includes the property owner’s...</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -21291,17 +21483,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>PREP FL 1.45</t>
+          <t>PREP FL Final 1.61.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>By definition, personal property</t>
+          <t>If a complainant withdraws a filed complaint, w...</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -21319,22 +21511,22 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>PREP FL 1.46</t>
+          <t>PREP FL Final 1.62.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>The agency relationship is defined by</t>
+          <t>When the Probable Cause Panel finds there is no...</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -21347,22 +21539,22 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>PREP FL 1.47</t>
+          <t>PREP FL Final 1.63.</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>The agent and principal may terminate the agenc...</t>
+          <t>When are the special fees for funding the Recov...</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -21375,22 +21567,22 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>PREP FL 1.48</t>
+          <t>PREP FL Final 1.64.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>One of the agent's fiduciary duties that contin...</t>
+          <t>In Florida, rental security deposits are limite...</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -21403,17 +21595,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>PREP FL 1.49</t>
+          <t>PREP FL Final 1.65.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>A buyer's broker owes the full set of fiduciary...</t>
+          <t>The fair housing law that first protected peopl...</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -21431,22 +21623,22 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>PREP FL 1.50</t>
+          <t>PREP FL Final 1.66.</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Among the duties of a broker who is acting as a...</t>
+          <t>When a sales associate license is first issued,...</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -21459,22 +21651,22 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>PREP FL 1.51</t>
+          <t>PREP FL Final 1.67.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>What is a loan-to-value ratio?</t>
+          <t>If a licensee changes his residential address, ...</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -21487,22 +21679,22 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>PREP FL 1.52</t>
+          <t>PREP FL Final 1.68.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>A loan applicant has an annual gross income of ...</t>
+          <t>Which statement is true regarding Florida broke...</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -21515,22 +21707,22 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>PREP FL 1.53</t>
+          <t>PREP FL Final 1.69.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>A VA certificate of eligibility determines</t>
+          <t>In which relationship is a licensee prohibited ...</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -21543,22 +21735,22 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>PREP FL 1.54</t>
+          <t>PREP FL Final 1.7.</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>The borrower in a mortgage loan transaction is ...</t>
+          <t>Which of the following duties is owed by a tran...</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -21571,22 +21763,22 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>PREP FL 1.55</t>
+          <t>PREP FL Final 1.71.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>If a lender discovers that an applicant for a m...</t>
+          <t>A property is being appraised using the income ...</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -21599,22 +21791,22 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>PREP FL 1.56</t>
+          <t>PREP FL Final 1.72.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Which of the following best describes actual no...</t>
+          <t>The act that required federally-related apprais...</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -21627,22 +21819,22 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>PREP FL 1.57</t>
+          <t>PREP FL Final 1.73.</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Title can be voluntarily transferred by</t>
+          <t>A house sold for $350,000.  The seller paid a b...</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -21655,22 +21847,22 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PREP FL 1.58</t>
+          <t>PREP FL Final 1.74.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>One of the conditions an adverse possessor must...</t>
+          <t>A homeowner bought a house five years ago for $...</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -21683,22 +21875,22 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>PREP FL 1.59</t>
+          <t>PREP FL Final 1.75.</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Among a landlord's primary obligations in a lea...</t>
+          <t>In Florida, unpaid property taxes become delinq...</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -21711,22 +21903,22 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>PREP FL 1.60</t>
+          <t>PREP FL Final 1.76.</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Which type of map includes the property owner’s...</t>
+          <t>Which of the following is not required for a re...</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -21739,22 +21931,22 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>PREP FL 1.61</t>
+          <t>PREP FL Final 1.77.</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>If a complainant withdraws a filed complaint, w...</t>
+          <t>A sign at the entrance to a brokerage office</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -21767,17 +21959,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PREP FL 1.62</t>
+          <t>PREP FL Final 1.78.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>When the Probable Cause Panel finds there is no...</t>
+          <t>Blind advertising occurs when</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -21795,17 +21987,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>PREP FL 1.63</t>
+          <t>PREP FL Final 1.79.</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>When are the special fees for funding the Recov...</t>
+          <t>A property buyer gave sales associate Tracy an ...</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -21823,22 +22015,22 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>PREP FL 1.64</t>
+          <t>PREP FL Final 1.8.</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>In Florida, rental security deposits are limite...</t>
+          <t>Sales associate Tracy accepted an earnest money...</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -21851,22 +22043,22 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>PREP FL 1.65</t>
+          <t>PREP FL Final 1.81.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>The fair housing law that first protected peopl...</t>
+          <t>An implied contract may be deemed to exist if</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -21879,22 +22071,22 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>PREP FL 1.66</t>
+          <t>PREP FL Final 1.82.</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>When a sales associate license is first issued,...</t>
+          <t>An agent signs a listing agreement with a home ...</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -21907,22 +22099,22 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>PREP FL 1.67</t>
+          <t>PREP FL Final 1.83.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>If a licensee changes his residential address, ...</t>
+          <t>In assisting a buyer or seller to complete an o...</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -21935,22 +22127,22 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>PREP FL 1.68</t>
+          <t>PREP FL Final 1.84.</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Which statement is true regarding Florida broke...</t>
+          <t>A buyer makes an offer to purchase a house, and...</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -21963,22 +22155,22 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>PREP FL 1.69</t>
+          <t>PREP FL Final 1.85.</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>In which relationship is a licensee prohibited ...</t>
+          <t>What kind of interest does the buyer own after ...</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -21991,22 +22183,22 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>PREP FL 1.70</t>
+          <t>PREP FL Final 1.86.</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Which of the following duties is owed by a tran...</t>
+          <t>Which of the following is included in surface r...</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -22019,22 +22211,22 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>PREP FL 1.71</t>
+          <t>PREP FL Final 1.87.</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>A property is being appraised using the income ...</t>
+          <t>In what kind of estate does ownership revert to...</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -22047,17 +22239,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PREP FL 1.72</t>
+          <t>PREP FL Final 1.88.</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>The act that required federally-related apprais...</t>
+          <t>If a tenant occupies a leased property without ...</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -22075,22 +22267,22 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PREP FL 1.73</t>
+          <t>PREP FL Final 1.89.</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>A house sold for $350,000.  The seller paid a b...</t>
+          <t>A tenant in common can</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -22103,17 +22295,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>PREP FL 1.74</t>
+          <t>PREP FL Final 1.9.</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>A homeowner bought a house five years ago for $...</t>
+          <t>If a joint tenant sells his or her interest to ...</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -22131,17 +22323,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>PREP FL 1.75</t>
+          <t>PREP FL Final 1.91.</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>In Florida, unpaid property taxes become delinq...</t>
+          <t>The Federal Reserve's Regulation Z applies to w...</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -22159,22 +22351,22 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>PREP FL 1.76</t>
+          <t>PREP FL Final 1.92.</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Which of the following is not required for a re...</t>
+          <t>Under the Equal Credit Opportunity Act, a lende...</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -22187,22 +22379,22 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PREP FL 1.77</t>
+          <t>PREP FL Final 1.93.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>A sign at the entrance to a brokerage office</t>
+          <t>How much intangible tax will be owed when an in...</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -22215,22 +22407,22 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>PREP FL 1.78</t>
+          <t>PREP FL Final 1.94.</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Blind advertising occurs when</t>
+          <t>A single-family property was purchased in Miami...</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -22243,17 +22435,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>PREP FL 1.79</t>
+          <t>PREP FL Final 1.95.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>A property buyer gave sales associate Tracy an ...</t>
+          <t>During the period between the signing of the sa...</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -22271,22 +22463,22 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PREP FL 1.80</t>
+          <t>PREP FL Final 1.96.</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Sales associate Tracy accepted an earnest money...</t>
+          <t>A legal description of a property is one which</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -22299,22 +22491,22 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>PREP FL 1.81</t>
+          <t>PREP FL Final 1.97.</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>An implied contract may be deemed to exist if</t>
+          <t>Which item would be included in the Florida Tra...</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -22327,22 +22519,22 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>PREP FL 1.82</t>
+          <t>PREP FL Final 1.98.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>An agent signs a listing agreement with a home ...</t>
+          <t>The valuable consideration necessary to make a ...</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -22355,17 +22547,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>PREP FL 1.83</t>
+          <t>PREP FL Final 1.99.</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>In assisting a buyer or seller to complete an o...</t>
+          <t>A contract that conveys an interest in real est...</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -22383,22 +22575,22 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>PREP FL 1.84</t>
+          <t>PREP FL Final 1.100.</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>A buyer makes an offer to purchase a house, and...</t>
+          <t>Which of the following contracts can be assigne...</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -22411,22 +22603,22 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>PREP FL 1.85</t>
+          <t>PREP FL Final 2.1.</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>What kind of interest does the buyer own after ...</t>
+          <t>Sheryl’s property has been foreclosed due to la...</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -22439,22 +22631,22 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PREP FL 1.86</t>
+          <t>PREP FL Final 2.2.</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Which of the following is included in surface r...</t>
+          <t>When is a deed NOT used to transfer a property ...</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -22467,22 +22659,22 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PREP FL 1.87</t>
+          <t>PREP FL Final 2.3.</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>In what kind of estate does ownership revert to...</t>
+          <t>If the owner of property A has a court-ordered ...</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -22495,22 +22687,22 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PREP FL 1.88</t>
+          <t>PREP FL Final 2.4.</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>If a tenant occupies a leased property without ...</t>
+          <t>An encroachment is</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -22523,17 +22715,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PREP FL 1.89</t>
+          <t>PREP FL Final 2.5.</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>A tenant in common can</t>
+          <t>How is a lien terminated?</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -22551,17 +22743,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>PREP FL 1.90</t>
+          <t>PREP FL Final 2.6.</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>If a joint tenant sells his or her interest to ...</t>
+          <t>To create an enforceable option-to-buy contract...</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -22579,22 +22771,22 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PREP FL 1.91</t>
+          <t>PREP FL Final 2.7.</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>The Federal Reserve's Regulation Z applies to w...</t>
+          <t>What is a lien-theory state?</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -22607,22 +22799,22 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>PREP FL 1.92</t>
+          <t>PREP FL Final 2.8.</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Under the Equal Credit Opportunity Act, a lende...</t>
+          <t>The document that provides evidence that a cert...</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -22635,17 +22827,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PREP FL 1.93</t>
+          <t>PREP FL Final 2.9.</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>How much intangible tax will be owed when an in...</t>
+          <t>How much is a discount point?</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -22663,22 +22855,22 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>PREP FL 1.94</t>
+          <t>PREP FL Final 2.10.</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>A single-family property was purchased in Miami...</t>
+          <t>For a loan that is not backed by the Federal Ho...</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -22691,22 +22883,22 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>PREP FL 1.95</t>
+          <t>PREP FL Final 2.11.</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>During the period between the signing of the sa...</t>
+          <t>A real estate professional who oversees the day...</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -22719,22 +22911,22 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>PREP FL 1.96</t>
+          <t>PREP FL Final 2.12.</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>A legal description of a property is one which</t>
+          <t>If an applicant was convicted of a crime 7 year...</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -22747,17 +22939,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>PREP FL 1.97</t>
+          <t>PREP FL Final 2.13.</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Which item would be included in the Florida Tra...</t>
+          <t>For whom does Florida waive the initial license...</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -22775,22 +22967,22 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>PREP FL 1.98</t>
+          <t>PREP FL Final 2.14.</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>The valuable consideration necessary to make a ...</t>
+          <t>If a license applicant is currently on probation,</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -22803,22 +22995,22 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>PREP FL 1.99</t>
+          <t>PREP FL Final 2.15.</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>A contract that conveys an interest in real est...</t>
+          <t>If the DBPR fails to approve or deny a license ...</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -22831,22 +23023,22 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PREP FL 1.100</t>
+          <t>PREP FL Final 2.16.</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Which of the following contracts can be assigne...</t>
+          <t>During a conflict over disbursement of escrow f...</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -22859,17 +23051,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PREP FL 2.1</t>
+          <t>PREP FL Final 2.17.</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Sheryl’s property has been foreclosed due to la...</t>
+          <t>Which of the following situations does not requ...</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -22887,17 +23079,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PREP FL 2.2</t>
+          <t>PREP FL Final 2.18.</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>When is a deed NOT used to transfer a property ...</t>
+          <t>Which of the following compensation actions is ...</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -22915,17 +23107,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PREP FL 2.3</t>
+          <t>PREP FL Final 2.19.</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>If the owner of property A has a court-ordered ...</t>
+          <t>Which of the following entities may not registe...</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -22943,17 +23135,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PREP FL 2.4</t>
+          <t>PREP FL Final 2.2.</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>An encroachment is</t>
+          <t>Duplicating brokerage records is prohibited when</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -22971,22 +23163,22 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PREP FL 2.5</t>
+          <t>PREP FL Final 2.21.</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>How is a lien terminated?</t>
+          <t>Which of the following best describes the value...</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -22999,22 +23191,22 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>PREP FL 2.6</t>
+          <t>PREP FL Final 2.22.</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>To create an enforceable option-to-buy contract...</t>
+          <t>One of the strengths of the sales comparison ap...</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
@@ -23027,22 +23219,22 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>PREP FL 2.7</t>
+          <t>PREP FL Final 2.23.</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>What is a lien-theory state?</t>
+          <t>In making dollar adjustments in the sales compa...</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
@@ -23055,22 +23247,22 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>PREP FL 2.8</t>
+          <t>PREP FL Final 2.24.</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>The document that provides evidence that a cert...</t>
+          <t>A house is being appraised using the sales comp...</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E320" t="inlineStr"/>
@@ -23083,22 +23275,22 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>PREP FL 2.9</t>
+          <t>PREP FL Final 2.25.</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>How much is a discount point?</t>
+          <t>The principle underlying depreciation from phys...</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
@@ -23111,17 +23303,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>PREP FL 2.10</t>
+          <t>PREP FL Final 2.26.</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>For a loan that is not backed by the Federal Ho...</t>
+          <t>If the Real Estate Settlement Procedures Act ap...</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -23139,17 +23331,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>PREP FL 2.11</t>
+          <t>PREP FL Final 2.27.</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>A real estate professional who oversees the day...</t>
+          <t>If an item to be prorated affects buyer and sel...</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -23167,22 +23359,22 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>PREP FL 2.12</t>
+          <t>PREP FL Final 2.28.</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>128</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>If an applicant was convicted of a crime 7 year...</t>
+          <t>A seller received a rental payment of $100 in a...</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E324" t="inlineStr"/>
@@ -23195,22 +23387,22 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>PREP FL 2.13</t>
+          <t>PREP FL Final 2.29.</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>For whom does Florida waive the initial license...</t>
+          <t>If the price of an item is increasing, one can ...</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E325" t="inlineStr"/>
@@ -23223,17 +23415,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PREP FL 2.14</t>
+          <t>PREP FL Final 2.3.</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>If a license applicant is currently on probation,</t>
+          <t>A person paid $150,000 for an apartment with th...</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -23251,22 +23443,22 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>PREP FL 2.15</t>
+          <t>PREP FL Final 2.31.</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>If the DBPR fails to approve or deny a license ...</t>
+          <t>Who may be exempt from completing Florida preli...</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
@@ -23279,22 +23471,22 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>PREP FL 2.16</t>
+          <t>PREP FL Final 2.32.</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>During a conflict over disbursement of escrow f...</t>
+          <t>Florida is mandated to provide reciprocal licen...</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
@@ -23307,22 +23499,22 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PREP FL 2.17</t>
+          <t>PREP FL Final 2.33.</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Which of the following situations does not requ...</t>
+          <t>All licensees must complete continuing educatio...</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
@@ -23335,22 +23527,22 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>PREP FL 2.18</t>
+          <t>PREP FL Final 2.34.</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Which of the following compensation actions is ...</t>
+          <t>The rules passed by the FREC are contained in</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -23363,17 +23555,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>PREP FL 2.19</t>
+          <t>PREP FL Final 2.35.</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Which of the following entities may not registe...</t>
+          <t>Carol is a broker who limits her real estate pr...</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -23391,17 +23583,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>PREP FL 2.20</t>
+          <t>PREP FL Final 2.36.</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Duplicating brokerage records is prohibited when</t>
+          <t>Certain classes of property owner and types of ...</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -23419,22 +23611,22 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>PREP FL 2.21</t>
+          <t>PREP FL Final 2.37.</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>137</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Which of the following best describes the value...</t>
+          <t>What is a tax deed?</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -23447,22 +23639,22 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>PREP FL 2.22</t>
+          <t>PREP FL Final 2.38.</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>One of the strengths of the sales comparison ap...</t>
+          <t>In land development, a takeout loan commitment ...</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -23475,17 +23667,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PREP FL 2.23</t>
+          <t>PREP FL Final 2.39.</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>In making dollar adjustments in the sales compa...</t>
+          <t>To obtain a change of the zoning for a particul...</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -23503,22 +23695,22 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>PREP FL 2.24</t>
+          <t>PREP FL Final 2.4.</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>A house is being appraised using the sales comp...</t>
+          <t>Among other provisions, the Superfund Act (CERC...</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
@@ -23531,17 +23723,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>PREP FL 2.25</t>
+          <t>PREP FL Final 2.41.</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>The principle underlying depreciation from phys...</t>
+          <t>Which of the following actions represents discr...</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -23559,22 +23751,22 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>PREP FL 2.26</t>
+          <t>PREP FL Final 2.42.</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>If the Real Estate Settlement Procedures Act ap...</t>
+          <t>Which of the following actions is allowed under...</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -23587,22 +23779,22 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>PREP FL 2.27</t>
+          <t>PREP FL Final 2.43.</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>If an item to be prorated affects buyer and sel...</t>
+          <t>May Southfeldt believes a real estate agent has...</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -23615,17 +23807,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>PREP FL 2.28</t>
+          <t>PREP FL Final 2.44.</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>A seller received a rental payment of $100 in a...</t>
+          <t>Which of the following is relevant to the meani...</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -23643,22 +23835,22 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>PREP FL 2.29</t>
+          <t>PREP FL Final 2.45.</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>If the price of an item is increasing, one can ...</t>
+          <t>The "bundle of rights" refers to a set of rights</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
@@ -23671,22 +23863,22 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>PREP FL 2.30</t>
+          <t>PREP FL Final 2.46.</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>A person paid $150,000 for an apartment with th...</t>
+          <t>If an agency relationship terminates because on...</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
@@ -23699,22 +23891,22 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>PREP FL 2.31</t>
+          <t>PREP FL Final 2.47.</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Who may be exempt from completing Florida preli...</t>
+          <t>Among the fiduciary duties imposed on a real es...</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
@@ -23727,17 +23919,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>PREP FL 2.32</t>
+          <t>PREP FL Final 2.48.</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Florida is mandated to provide reciprocal licen...</t>
+          <t>If a potential buyer discloses financial qualif...</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -23755,22 +23947,22 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>PREP FL 2.33</t>
+          <t>PREP FL Final 2.49.</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>All licensees must complete continuing educatio...</t>
+          <t>Which of the following is a dual agency situation?</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -23783,22 +23975,22 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>PREP FL 2.34</t>
+          <t>PREP FL Final 2.5.</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>The rules passed by the FREC are contained in</t>
+          <t>In which of the following contact situations wo...</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -23811,22 +24003,22 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>PREP FL 2.35</t>
+          <t>PREP FL Final 2.51.</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Carol is a broker who limits her real estate pr...</t>
+          <t>The Equal Credit Opportunity Act prohibits a le...</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -23839,22 +24031,22 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>PREP FL 2.36</t>
+          <t>PREP FL Final 2.52.</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Certain classes of property owner and types of ...</t>
+          <t>A conventional mortgage loan is one that is</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -23867,22 +24059,22 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>PREP FL 2.37</t>
+          <t>PREP FL Final 2.53.</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>What is a tax deed?</t>
+          <t>Which of the following describes a purchase mon...</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -23895,22 +24087,22 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>PREP FL 2.38</t>
+          <t>PREP FL Final 2.54.</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>In land development, a takeout loan commitment ...</t>
+          <t>A borrower of a $95,000 interest-only loan make...</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
@@ -23923,22 +24115,22 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>PREP FL 2.39</t>
+          <t>PREP FL Final 2.55.</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>To obtain a change of the zoning for a particul...</t>
+          <t>The difference between what a borrower has to p...</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -23951,22 +24143,22 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>PREP FL 2.40</t>
+          <t>PREP FL Final 2.56.</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Among other provisions, the Superfund Act (CERC...</t>
+          <t>The question of who owns title to a property is...</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -23979,22 +24171,22 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>PREP FL 2.41</t>
+          <t>PREP FL Final 2.57.</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Which of the following actions represents discr...</t>
+          <t>The type of deed that offers the grantee the fu...</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
@@ -24007,22 +24199,22 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>PREP FL 2.42</t>
+          <t>PREP FL Final 2.58.</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Which of the following actions is allowed under...</t>
+          <t>If an owner of real property dies without leavi...</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
@@ -24035,22 +24227,22 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>PREP FL 2.43</t>
+          <t>PREP FL Final 2.59.</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>May Southfeldt believes a real estate agent has...</t>
+          <t>The type of lease in which the landlord pays al...</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -24063,22 +24255,22 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>PREP FL 2.44</t>
+          <t>PREP FL Final 2.6.</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Which of the following is relevant to the meani...</t>
+          <t>The special purpose map that shows all of the p...</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -24091,22 +24283,22 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>PREP FL 2.45</t>
+          <t>PREP FL Final 2.61.</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>The "bundle of rights" refers to a set of rights</t>
+          <t>When the DBPR completes its complaint investiga...</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -24119,22 +24311,22 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>PREP FL 2.46</t>
+          <t>PREP FL Final 2.62.</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>If an agency relationship terminates because on...</t>
+          <t>Which part of the complaint process is confiden...</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -24147,17 +24339,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>PREP FL 2.47</t>
+          <t>PREP FL Final 2.63.</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Among the fiduciary duties imposed on a real es...</t>
+          <t>Multiple claims for payments from the Recovery ...</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -24175,22 +24367,22 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>PREP FL 2.48</t>
+          <t>PREP FL Final 2.64.</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>If a potential buyer discloses financial qualif...</t>
+          <t>Except in cases of an emergency, landlords must...</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -24203,22 +24395,22 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>PREP FL 2.49</t>
+          <t>PREP FL Final 2.65.</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Which of the following is a dual agency situation?</t>
+          <t>The classes protected against discrimination by...</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -24231,22 +24423,22 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>PREP FL 2.50</t>
+          <t>PREP FL Final 2.66.</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>In which of the following contact situations wo...</t>
+          <t>Sue’s active duty army husband was killed in Af...</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E362" t="inlineStr"/>
@@ -24259,22 +24451,22 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>PREP FL 2.51</t>
+          <t>PREP FL Final 2.67.</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>The Equal Credit Opportunity Act prohibits a le...</t>
+          <t>A group license is used</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
@@ -24287,17 +24479,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>PREP FL 2.52</t>
+          <t>PREP FL Final 2.68.</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>A conventional mortgage loan is one that is</t>
+          <t>Which brokerage relationship is a customer requ...</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -24315,22 +24507,22 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>PREP FL 2.53</t>
+          <t>PREP FL Final 2.69.</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Which of the following describes a purchase mon...</t>
+          <t>Broker Bob has a 2015 disclosure document that ...</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -24343,22 +24535,22 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>PREP FL 2.54</t>
+          <t>PREP FL Final 2.7.</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>A borrower of a $95,000 interest-only loan make...</t>
+          <t>In a designated sales associate relationship, w...</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -24371,22 +24563,22 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>PREP FL 2.55</t>
+          <t>PREP FL Final 2.71.</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>The difference between what a borrower has to p...</t>
+          <t>Which of the following statements properly desc...</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
@@ -24399,22 +24591,22 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>PREP FL 2.56</t>
+          <t>PREP FL Final 2.72.</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>172</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>The question of who owns title to a property is...</t>
+          <t>An apartment building that sold for $450,000 ha...</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -24427,22 +24619,22 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>PREP FL 2.57</t>
+          <t>PREP FL Final 2.73.</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>The type of deed that offers the grantee the fu...</t>
+          <t>To engage in business brokerage, a broker must ...</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -24455,22 +24647,22 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>PREP FL 2.58</t>
+          <t>PREP FL Final 2.74.</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>174</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>If an owner of real property dies without leavi...</t>
+          <t>A homeowner sold her house and had net proceeds...</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E370" t="inlineStr"/>
@@ -24483,22 +24675,22 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>PREP FL 2.59</t>
+          <t>PREP FL Final 2.75.</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>The type of lease in which the landlord pays al...</t>
+          <t>Multiplying the tax rate times the taxable valu...</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E371" t="inlineStr"/>
@@ -24511,22 +24703,22 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>PREP FL 2.60</t>
+          <t>PREP FL Final 2.76.</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>The special purpose map that shows all of the p...</t>
+          <t>An office is considered a temporary shelter pro...</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -24539,17 +24731,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>PREP FL 2.61</t>
+          <t>PREP FL Final 2.77.</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>When the DBPR completes its complaint investiga...</t>
+          <t>According to Florida law regarding work and the...</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -24567,22 +24759,22 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>PREP FL 2.62</t>
+          <t>PREP FL Final 2.78.</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Which part of the complaint process is confiden...</t>
+          <t>Which of the following is NOT permitted to hold...</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E374" t="inlineStr"/>
@@ -24595,22 +24787,22 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>PREP FL 2.63</t>
+          <t>PREP FL Final 2.79.</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Multiple claims for payments from the Recovery ...</t>
+          <t>Although Florida law prohibits a broker from in...</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -24623,17 +24815,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>PREP FL 2.64</t>
+          <t>PREP FL Final 2.8.</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Except in cases of an emergency, landlords must...</t>
+          <t>Sales associate Tracy accepted an earnest money...</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -24651,22 +24843,22 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>PREP FL 2.65</t>
+          <t>PREP FL Final 2.81.</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>The classes protected against discrimination by...</t>
+          <t>Which of the following conditions is necessary ...</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E377" t="inlineStr"/>
@@ -24679,22 +24871,22 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>PREP FL 2.66</t>
+          <t>PREP FL Final 2.82.</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Sue’s active duty army husband was killed in Af...</t>
+          <t>A real estate sales associate brings a buyer to...</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E378" t="inlineStr"/>
@@ -24707,22 +24899,22 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>PREP FL 2.67</t>
+          <t>PREP FL Final 2.83.</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>A group license is used</t>
+          <t>To be enforceable, a contract for the sale of r...</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E379" t="inlineStr"/>
@@ -24735,22 +24927,22 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>PREP FL 2.68</t>
+          <t>PREP FL Final 2.84.</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Which brokerage relationship is a customer requ...</t>
+          <t>Which of the following is an essential element ...</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -24763,22 +24955,22 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>PREP FL 2.69</t>
+          <t>PREP FL Final 2.85.</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Broker Bob has a 2015 disclosure document that ...</t>
+          <t>A buyer signs an earnest money agreement and gi...</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E381" t="inlineStr"/>
@@ -24791,17 +24983,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>PREP FL 2.70</t>
+          <t>PREP FL Final 2.86.</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>In a designated sales associate relationship, w...</t>
+          <t>Which of the following is true of littoral rights?</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -24819,22 +25011,22 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>PREP FL 2.71</t>
+          <t>PREP FL Final 2.87.</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>187</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Which of the following statements properly desc...</t>
+          <t>Two people own a house, each having an undivide...</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -24847,22 +25039,22 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>PREP FL 2.72</t>
+          <t>PREP FL Final 2.88.</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>An apartment building that sold for $450,000 ha...</t>
+          <t>If the duration of an owner's rights in an esta...</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -24875,22 +25067,22 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PREP FL 2.73</t>
+          <t>PREP FL Final 2.89.</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>189</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>To engage in business brokerage, a broker must ...</t>
+          <t>Which of the following is true of a joint tenancy?</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -24903,17 +25095,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>PREP FL 2.74</t>
+          <t>PREP FL Final 2.9.</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>A homeowner sold her house and had net proceeds...</t>
+          <t>Two individuals can own a house as tenants by t...</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -24931,22 +25123,22 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>PREP FL 2.75</t>
+          <t>PREP FL Final 2.91.</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>191</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Multiplying the tax rate times the taxable valu...</t>
+          <t>If a particular loan falls under Regulation Z's...</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -24959,17 +25151,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>PREP FL 2.76</t>
+          <t>PREP FL Final 2.92.</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>192</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>An office is considered a temporary shelter pro...</t>
+          <t>A borrower obtains a 30-year, fully amortizing ...</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -24987,22 +25179,22 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>PREP FL 2.77</t>
+          <t>PREP FL Final 2.93.</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>193</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>According to Florida law regarding work and the...</t>
+          <t>How much documentary stamp tax will be owed on ...</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -25015,17 +25207,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>PREP FL 2.78</t>
+          <t>PREP FL Final 2.94.</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Which of the following is NOT permitted to hold...</t>
+          <t>John bought a single-family home in Tampa, Flor...</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -25043,17 +25235,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>PREP FL 2.79</t>
+          <t>PREP FL Final 2.95.</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>195</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Although Florida law prohibits a broker from in...</t>
+          <t>When should a buyer undertake a "buyer's walk-t...</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -25071,22 +25263,22 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>PREP FL 2.80</t>
+          <t>PREP FL Final 2.96.</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Sales associate Tracy accepted an earnest money...</t>
+          <t>What are the dimensions of a township?</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -25099,22 +25291,22 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>PREP FL 2.81</t>
+          <t>PREP FL Final 2.97.</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>197</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Which of the following conditions is necessary ...</t>
+          <t>A sale involving a _________________ requires a...</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -25127,22 +25319,22 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>PREP FL 2.82</t>
+          <t>PREP FL Final 2.98.</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>A real estate sales associate brings a buyer to...</t>
+          <t>The necessary condition of mutual consent may b...</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -25155,22 +25347,22 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>PREP FL 2.83</t>
+          <t>PREP FL Final 2.99.</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>199</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>To be enforceable, a contract for the sale of r...</t>
+          <t>A homeseller signs a listing agreement with a b...</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -25183,474 +25375,26 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>PREP FL 2.84</t>
+          <t>PREP FL Final 2.100.</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Which of the following is an essential element ...</t>
+          <t>A breach of contract is</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>PREP FL 2.85</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>A buyer signs an earnest money agreement and gi...</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>PREP FL 2.86</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>Which of the following is true of littoral rights?</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>PREP FL 2.87</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>Two people own a house, each having an undivide...</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>PREP FL 2.88</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>If the duration of an owner's rights in an esta...</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>PREP FL 2.89</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>Which of the following is true of a joint tenancy?</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>PREP FL 2.90</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>Two individuals can own a house as tenants by t...</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>PREP FL 2.91</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>If a particular loan falls under Regulation Z's...</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>PREP FL 2.92</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>A borrower obtains a 30-year, fully amortizing ...</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>PREP FL 2.93</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>How much documentary stamp tax will be owed on ...</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>PREP FL 2.94</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>John bought a single-family home in Tampa, Flor...</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>PREP FL 2.95</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>When should a buyer undertake a "buyer's walk-t...</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>PREP FL 2.96</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>What are the dimensions of a township?</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>PREP FL 2.97</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>A sale involving a _________________ requires a...</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>PREP FL 2.98</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>The necessary condition of mutual consent may b...</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>PREP FL 2.99</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>A homeseller signs a listing agreement with a b...</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E411" t="inlineStr"/>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>PREP FL 2.100</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>A breach of contract is</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr">
         <is>
           <t>No</t>
         </is>
